--- a/Data/Okanogan_EDT/Okanogan_AU_Reach_Crosswalk.xlsx
+++ b/Data/Okanogan_EDT/Okanogan_AU_Reach_Crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13A299-8550-4A2A-BFA6-1AD12204DDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7BA4C7-F763-4686-A210-1BF60C24D151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4452" yWindow="552" windowWidth="16620" windowHeight="11352" xr2:uid="{C5E7F2ED-6596-48A9-B90D-5FCE0460D933}"/>
+    <workbookView xWindow="936" yWindow="1248" windowWidth="20928" windowHeight="10668" xr2:uid="{C5E7F2ED-6596-48A9-B90D-5FCE0460D933}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1637,7 +1637,7 @@
   <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3030,7 +3030,7 @@
         <v>48</v>
       </c>
       <c r="H53" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -3056,7 +3056,7 @@
         <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -3082,7 +3082,7 @@
         <v>48</v>
       </c>
       <c r="H55" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">

--- a/Data/Okanogan_EDT/Okanogan_AU_Reach_Crosswalk.xlsx
+++ b/Data/Okanogan_EDT/Okanogan_AU_Reach_Crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7BA4C7-F763-4686-A210-1BF60C24D151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA33A820-0F07-4639-8696-8677B1A71D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="1248" windowWidth="20928" windowHeight="10668" xr2:uid="{C5E7F2ED-6596-48A9-B90D-5FCE0460D933}"/>
+    <workbookView xWindow="8412" yWindow="684" windowWidth="14064" windowHeight="10668" xr2:uid="{C5E7F2ED-6596-48A9-B90D-5FCE0460D933}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,9 +541,6 @@
     <t>Okanogan 16-8</t>
   </si>
   <si>
-    <t>Chiliwist Creek 16-1</t>
-  </si>
-  <si>
     <t>Okanogan 16-9</t>
   </si>
   <si>
@@ -1217,6 +1214,9 @@
   </si>
   <si>
     <t>Salmon 16-10</t>
+  </si>
+  <si>
+    <t>Chiliwist 16-1</t>
   </si>
 </sst>
 </file>
@@ -1654,19 +1654,19 @@
         <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>156</v>
@@ -1675,7 +1675,7 @@
         <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1683,25 +1683,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1709,25 +1709,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1735,25 +1735,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1761,25 +1761,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1787,25 +1787,25 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1813,25 +1813,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1839,25 +1839,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1865,25 +1865,25 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1891,25 +1891,25 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1917,25 +1917,25 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1943,19 +1943,19 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -1969,19 +1969,19 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -1995,19 +1995,19 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -2021,19 +2021,19 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -2047,19 +2047,19 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
@@ -2073,19 +2073,19 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
@@ -2099,19 +2099,19 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -2125,19 +2125,19 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -2151,19 +2151,19 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
@@ -2177,25 +2177,25 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2203,25 +2203,25 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2229,25 +2229,25 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2255,25 +2255,25 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2281,25 +2281,25 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2307,25 +2307,25 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2333,25 +2333,25 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2359,25 +2359,25 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2385,25 +2385,25 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2411,25 +2411,25 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2437,25 +2437,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2469,19 +2469,19 @@
         <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2495,19 +2495,19 @@
         <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2521,19 +2521,19 @@
         <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2547,19 +2547,19 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2573,19 +2573,19 @@
         <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2599,19 +2599,19 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2625,19 +2625,19 @@
         <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G38" t="s">
         <v>39</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2651,19 +2651,19 @@
         <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2671,28 +2671,28 @@
         <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2700,25 +2700,25 @@
         <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2726,25 +2726,25 @@
         <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G42" t="s">
         <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2752,25 +2752,25 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G43" t="s">
         <v>48</v>
       </c>
       <c r="H43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2778,25 +2778,25 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
         <v>48</v>
       </c>
       <c r="H44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2804,25 +2804,25 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E45" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F45" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G45" t="s">
         <v>48</v>
       </c>
       <c r="H45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2830,25 +2830,25 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
       </c>
       <c r="H46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2856,25 +2856,25 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G47" t="s">
         <v>48</v>
       </c>
       <c r="H47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2882,25 +2882,25 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G48" t="s">
         <v>48</v>
       </c>
       <c r="H48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2908,25 +2908,25 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G49" t="s">
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2934,25 +2934,25 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G50" t="s">
         <v>48</v>
       </c>
       <c r="H50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2960,25 +2960,25 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G51" t="s">
         <v>48</v>
       </c>
       <c r="H51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2986,25 +2986,25 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G52" t="s">
         <v>48</v>
       </c>
       <c r="H52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -3012,25 +3012,25 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G53" t="s">
         <v>48</v>
       </c>
       <c r="H53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -3038,25 +3038,25 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G54" t="s">
         <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -3064,25 +3064,25 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G55" t="s">
         <v>48</v>
       </c>
       <c r="H55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -3090,28 +3090,28 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D56" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F56" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G56" t="s">
         <v>48</v>
       </c>
       <c r="H56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -3119,28 +3119,28 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G57" t="s">
         <v>66</v>
       </c>
       <c r="H57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -3148,25 +3148,25 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G58" t="s">
         <v>66</v>
       </c>
       <c r="H58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -3174,25 +3174,25 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G59" t="s">
         <v>66</v>
       </c>
       <c r="H59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -3200,25 +3200,25 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G60" t="s">
         <v>66</v>
       </c>
       <c r="H60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -3226,25 +3226,25 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -3252,25 +3252,25 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G62" t="s">
         <v>66</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -3278,25 +3278,25 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G63" t="s">
         <v>66</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -3304,25 +3304,25 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G64" t="s">
         <v>66</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3330,25 +3330,25 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3356,25 +3356,25 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E66" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F66" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -3382,25 +3382,25 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -3408,25 +3408,25 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -3434,25 +3434,25 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G69" t="s">
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -3460,25 +3460,25 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G70" t="s">
         <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3486,25 +3486,25 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G71" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3512,25 +3512,25 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G72" t="s">
         <v>48</v>
       </c>
       <c r="H72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3538,25 +3538,25 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G73" t="s">
         <v>83</v>
       </c>
       <c r="H73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -3564,25 +3564,25 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G74" t="s">
         <v>83</v>
       </c>
       <c r="H74" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3590,25 +3590,25 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G75" t="s">
         <v>83</v>
       </c>
       <c r="H75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3616,25 +3616,25 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G76" t="s">
         <v>83</v>
       </c>
       <c r="H76" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3642,25 +3642,25 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G77" t="s">
         <v>83</v>
       </c>
       <c r="H77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -3668,25 +3668,25 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
       </c>
       <c r="H78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3694,25 +3694,25 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
       </c>
       <c r="H79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3720,25 +3720,25 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D80" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E80" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F80" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G80" t="s">
         <v>91</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -3746,25 +3746,25 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G81" t="s">
         <v>91</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -3772,25 +3772,25 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E82" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F82" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G82" t="s">
         <v>91</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -3798,25 +3798,25 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G83" t="s">
         <v>91</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -3824,25 +3824,25 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G84" t="s">
         <v>91</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -3850,25 +3850,25 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D85" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G85" t="s">
         <v>91</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -3876,25 +3876,25 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G86" t="s">
         <v>91</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -3902,25 +3902,25 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G87" t="s">
         <v>91</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -3928,25 +3928,25 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D88" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G88" t="s">
         <v>91</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -3954,25 +3954,25 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G89" t="s">
         <v>91</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -3980,25 +3980,25 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E90" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F90" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G90" t="s">
         <v>102</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -4006,25 +4006,25 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E91" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F91" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G91" t="s">
         <v>102</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -4032,25 +4032,25 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G92" t="s">
         <v>102</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -4058,28 +4058,28 @@
         <v>133</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D93" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F93" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G93" t="s">
         <v>102</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I93" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -4087,28 +4087,28 @@
         <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G94" t="s">
         <v>102</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I94" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -4116,25 +4116,25 @@
         <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D95" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G95" t="s">
         <v>102</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -4142,28 +4142,28 @@
         <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E96" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G96" t="s">
         <v>102</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I96" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -4171,28 +4171,28 @@
         <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -4200,25 +4200,25 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G98" t="s">
         <v>106</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -4226,25 +4226,25 @@
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G99" t="s">
         <v>106</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -4252,25 +4252,25 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E100" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F100" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G100" t="s">
         <v>106</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -4278,25 +4278,25 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E101" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F101" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -4304,25 +4304,25 @@
         <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E102" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F102" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G102" t="s">
         <v>106</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -4330,25 +4330,25 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G103" t="s">
         <v>111</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -4356,25 +4356,25 @@
         <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C104" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D104" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G104" t="s">
         <v>111</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -4382,25 +4382,25 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D105" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E105" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F105" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G105" t="s">
         <v>111</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -4408,25 +4408,25 @@
         <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D106" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E106" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F106" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -4434,28 +4434,28 @@
         <v>123</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D107" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E107" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F107" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G107" t="s">
         <v>111</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -4463,25 +4463,25 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D108" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E108" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F108" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G108" t="s">
         <v>111</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -4489,25 +4489,25 @@
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D109" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E109" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F109" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G109" t="s">
         <v>111</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -4515,25 +4515,25 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D110" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E110" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F110" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G110" t="s">
         <v>111</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -4541,25 +4541,25 @@
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D111" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G111" t="s">
         <v>111</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -4567,25 +4567,25 @@
         <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D112" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G112" t="s">
         <v>111</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -4593,25 +4593,25 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C113" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D113" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E113" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F113" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G113" t="s">
         <v>111</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -4619,25 +4619,25 @@
         <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D114" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E114" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F114" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G114" t="s">
         <v>111</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -4645,25 +4645,25 @@
         <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D115" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G115" t="s">
         <v>111</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -4671,25 +4671,25 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D116" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G116" t="s">
         <v>48</v>
       </c>
       <c r="H116" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -4697,25 +4697,25 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D117" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E117" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F117" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G117" t="s">
         <v>126</v>
       </c>
       <c r="H117" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -4723,25 +4723,25 @@
         <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D118" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E118" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F118" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G118" t="s">
         <v>126</v>
       </c>
       <c r="H118" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -4749,25 +4749,25 @@
         <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D119" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E119" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F119" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G119" t="s">
         <v>126</v>
       </c>
       <c r="H119" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -4775,25 +4775,25 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D120" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E120" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F120" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G120" t="s">
         <v>126</v>
       </c>
       <c r="H120" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -4801,25 +4801,25 @@
         <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E121" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F121" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
       </c>
       <c r="H121" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -4827,25 +4827,25 @@
         <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D122" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E122" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F122" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G122" t="s">
         <v>132</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -4853,25 +4853,25 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E123" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F123" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G123" t="s">
         <v>30</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -4879,25 +4879,25 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E124" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F124" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G124" t="s">
         <v>140</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -4905,25 +4905,25 @@
         <v>142</v>
       </c>
       <c r="B125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D125" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E125" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F125" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G125" t="s">
         <v>143</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -4931,25 +4931,25 @@
         <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D126" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E126" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F126" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G126" t="s">
         <v>145</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -4957,25 +4957,25 @@
         <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D127" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E127" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F127" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G127" t="s">
         <v>145</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -4983,25 +4983,25 @@
         <v>147</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D128" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G128" t="s">
         <v>145</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -5009,19 +5009,19 @@
         <v>148</v>
       </c>
       <c r="B129" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C129" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D129" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G129" t="s">
         <v>149</v>
@@ -5035,19 +5035,19 @@
         <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C130" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D130" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E130" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F130" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G130" t="s">
         <v>149</v>
@@ -5061,19 +5061,19 @@
         <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D131" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E131" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F131" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G131" t="s">
         <v>149</v>
@@ -5087,19 +5087,19 @@
         <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D132" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E132" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F132" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G132" t="s">
         <v>153</v>
@@ -5113,19 +5113,19 @@
         <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D133" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E133" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F133" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G133" t="s">
         <v>153</v>
@@ -5163,162 +5163,162 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" t="s">
         <v>301</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>302</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>303</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>304</v>
-      </c>
-      <c r="E1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" t="s">
         <v>306</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>307</v>
-      </c>
-      <c r="E2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" t="s">
         <v>309</v>
-      </c>
-      <c r="E3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" t="s">
         <v>311</v>
-      </c>
-      <c r="E4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" t="s">
         <v>313</v>
-      </c>
-      <c r="E5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" t="s">
         <v>315</v>
-      </c>
-      <c r="E6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" t="s">
         <v>318</v>
-      </c>
-      <c r="E8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" t="s">
         <v>320</v>
-      </c>
-      <c r="E9" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" t="s">
         <v>322</v>
-      </c>
-      <c r="E10" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" t="s">
         <v>324</v>
-      </c>
-      <c r="E11" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" t="s">
         <v>327</v>
-      </c>
-      <c r="E13" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" t="s">
         <v>329</v>
-      </c>
-      <c r="E14" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -5326,7 +5326,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -5343,7 +5343,7 @@
         <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -5352,18 +5352,18 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" t="s">
         <v>335</v>
-      </c>
-      <c r="E17" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -5371,7 +5371,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -5380,7 +5380,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -5388,7 +5388,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -5414,7 +5414,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -5422,7 +5422,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -5439,7 +5439,7 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -5448,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -5465,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -5473,7 +5473,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -5490,7 +5490,7 @@
         <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -5499,15 +5499,15 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -5516,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -5524,7 +5524,7 @@
         <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -5533,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -5541,7 +5541,7 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -5550,7 +5550,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -5558,7 +5558,7 @@
         <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -5567,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -5575,7 +5575,7 @@
         <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -5584,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -5592,7 +5592,7 @@
         <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -5609,7 +5609,7 @@
         <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -5626,7 +5626,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -5635,7 +5635,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -5652,7 +5652,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -5660,7 +5660,7 @@
         <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -5669,7 +5669,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -5677,7 +5677,7 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -5686,7 +5686,7 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -5694,7 +5694,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -5703,18 +5703,18 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>362</v>
+      </c>
+      <c r="B38" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" t="s">
         <v>363</v>
-      </c>
-      <c r="B38" t="s">
-        <v>363</v>
-      </c>
-      <c r="E38" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -5722,7 +5722,7 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -5731,7 +5731,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -5739,7 +5739,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -5748,7 +5748,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -5756,7 +5756,7 @@
         <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -5765,12 +5765,12 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C42">
         <v>3</v>
